--- a/time logging.xlsx
+++ b/time logging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffen\Arbejde\CS education\Introduction To CS and Programming Using Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D822DB29-A2D2-48A0-8204-C9A4A8AA87C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB7BBA7-AA8A-45A9-AF5C-11B70C826DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-1980" windowWidth="16440" windowHeight="28440" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>CS Introduction lecture 5</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>Minute</t>
   </si>
 </sst>
 </file>
@@ -86,9 +92,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE79405-D1A3-4A66-A83E-48D5F1755AB2}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -434,30 +443,77 @@
     <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>45808</v>
       </c>
-      <c r="B2">
-        <v>15.2</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" s="3">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B4">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F8" s="2"/>
+      <c r="G8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time logging.xlsx
+++ b/time logging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffen\Arbejde\CS education\Introduction To CS and Programming Using Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB7BBA7-AA8A-45A9-AF5C-11B70C826DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDB6107-3D3B-4DA6-890E-609943DA96A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-1980" windowWidth="16440" windowHeight="28440" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -57,16 +57,28 @@
   </si>
   <si>
     <t>Minute</t>
+  </si>
+  <si>
+    <t>CS Introduction lecture 6</t>
+  </si>
+  <si>
+    <t>CS Introduction lecture 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,11 +104,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -435,7 +446,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -475,16 +486,16 @@
       <c r="A3" s="1">
         <v>45808</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>15</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>40</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>17</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>18</v>
       </c>
       <c r="F3" t="s">
@@ -511,11 +522,52 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/time logging.xlsx
+++ b/time logging.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffen\Arbejde\CS education\Introduction To CS and Programming Using Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDB6107-3D3B-4DA6-890E-609943DA96A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B46E117-E3C7-4EBE-BE0E-75488CD2A9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-1980" windowWidth="16440" windowHeight="28440" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>CS Introduction lecture 7</t>
+  </si>
+  <si>
+    <t>CS Introduction lecture 8</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>CS Introduction lecture 9</t>
   </si>
 </sst>
 </file>
@@ -104,10 +113,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -443,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE79405-D1A3-4A66-A83E-48D5F1755AB2}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -562,12 +570,58 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
+      <c r="A8" s="1">
+        <v>45810</v>
+      </c>
+      <c r="B8">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/time logging.xlsx
+++ b/time logging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffen\Arbejde\CS education\Introduction To CS and Programming Using Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B46E117-E3C7-4EBE-BE0E-75488CD2A9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE1DD60-7964-4691-900B-4630D189D4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>CS Introduction lecture 9</t>
+  </si>
+  <si>
+    <t>Problem Set 1</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -611,6 +614,26 @@
       </c>
       <c r="G8" s="2"/>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>45810</v>
+      </c>
+      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E35" t="s">
         <v>10</v>

--- a/time logging.xlsx
+++ b/time logging.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffen\Arbejde\CS education\Introduction To CS and Programming Using Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE1DD60-7964-4691-900B-4630D189D4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122321AF-9977-4DD1-A4F9-FF959D020A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Problem Set 1</t>
+  </si>
+  <si>
+    <t>CS introduction lecture11</t>
+  </si>
+  <si>
+    <t>Problem Set 2</t>
   </si>
 </sst>
 </file>
@@ -457,7 +463,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -634,6 +640,40 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>45811</v>
+      </c>
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>45811</v>
+      </c>
+      <c r="B11">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E35" t="s">
         <v>10</v>

--- a/time logging.xlsx
+++ b/time logging.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffen\Arbejde\CS education\Introduction To CS and Programming Using Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122321AF-9977-4DD1-A4F9-FF959D020A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36457BFB-4FFB-40E0-9211-10C4321572B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
+    <workbookView xWindow="38280" yWindow="-1980" windowWidth="16440" windowHeight="28440" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -68,9 +68,6 @@
     <t>CS Introduction lecture 8</t>
   </si>
   <si>
-    <t>asd</t>
-  </si>
-  <si>
     <t>CS Introduction lecture 9</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>Problem Set 2</t>
+  </si>
+  <si>
+    <t>CS introduction Lecture 12</t>
   </si>
 </sst>
 </file>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE79405-D1A3-4A66-A83E-48D5F1755AB2}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -616,7 +616,7 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -637,7 +637,7 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -657,7 +657,7 @@
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -665,21 +665,33 @@
         <v>45811</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
       </c>
       <c r="F11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>45812</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/time logging.xlsx
+++ b/time logging.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffen\Arbejde\CS education\Introduction To CS and Programming Using Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36457BFB-4FFB-40E0-9211-10C4321572B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A573D0C6-A3BA-4DD5-8066-D78E9C229E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-1980" windowWidth="16440" windowHeight="28440" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>CS introduction Lecture 12</t>
+  </si>
+  <si>
+    <t>CS intoduction Lecture 12</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE79405-D1A3-4A66-A83E-48D5F1755AB2}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -690,8 +693,34 @@
       <c r="C12">
         <v>10</v>
       </c>
+      <c r="D12">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>38</v>
+      </c>
       <c r="F12" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>45813</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/time logging.xlsx
+++ b/time logging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffen\Arbejde\CS education\Introduction To CS and Programming Using Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A573D0C6-A3BA-4DD5-8066-D78E9C229E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB6B76B-5469-4AED-9E7B-4B13D33ED146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>CS intoduction Lecture 12</t>
+  </si>
+  <si>
+    <t>CS intoduction Lecture 13</t>
+  </si>
+  <si>
+    <t>CS intoduction Lecture 14</t>
   </si>
 </sst>
 </file>
@@ -463,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE79405-D1A3-4A66-A83E-48D5F1755AB2}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -723,6 +729,40 @@
         <v>15</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>45813</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>45813</v>
+      </c>
+      <c r="B15">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time logging.xlsx
+++ b/time logging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffen\Arbejde\CS education\Introduction To CS and Programming Using Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB6B76B-5469-4AED-9E7B-4B13D33ED146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D8BBDE-0581-4C33-8D4A-BEF9B3987EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
   </bookViews>
@@ -759,6 +759,12 @@
       <c r="C15">
         <v>15</v>
       </c>
+      <c r="D15">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
       <c r="F15" t="s">
         <v>17</v>
       </c>

--- a/time logging.xlsx
+++ b/time logging.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffen\Arbejde\CS education\Introduction To CS and Programming Using Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steff\Personal\CS Education\CS-ducation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D8BBDE-0581-4C33-8D4A-BEF9B3987EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEB4C3B-D87C-4699-9FA5-3A24C59FAF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -83,13 +72,16 @@
     <t>CS introduction Lecture 12</t>
   </si>
   <si>
-    <t>CS intoduction Lecture 12</t>
-  </si>
-  <si>
-    <t>CS intoduction Lecture 13</t>
-  </si>
-  <si>
-    <t>CS intoduction Lecture 14</t>
+    <t>CS Introduction Lecture 12</t>
+  </si>
+  <si>
+    <t>CS Introduction Lecture 13</t>
+  </si>
+  <si>
+    <t>CS Introduction Lecture 14</t>
+  </si>
+  <si>
+    <t>CS Introduction Lecture 15</t>
   </si>
 </sst>
 </file>
@@ -469,18 +461,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE79405-D1A3-4A66-A83E-48D5F1755AB2}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -508,7 +500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>45808</v>
       </c>
@@ -528,7 +520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>45808</v>
       </c>
@@ -548,7 +540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>45808</v>
       </c>
@@ -568,7 +560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>45809</v>
       </c>
@@ -588,7 +580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>45809</v>
       </c>
@@ -608,7 +600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>45810</v>
       </c>
@@ -629,7 +621,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>45810</v>
       </c>
@@ -649,7 +641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>45811</v>
       </c>
@@ -669,7 +661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>45811</v>
       </c>
@@ -689,7 +681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>45812</v>
       </c>
@@ -709,7 +701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>45813</v>
       </c>
@@ -729,7 +721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>45813</v>
       </c>
@@ -749,7 +741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>45813</v>
       </c>
@@ -767,6 +759,26 @@
       </c>
       <c r="F15" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>45814</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/time logging.xlsx
+++ b/time logging.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steff\Personal\CS Education\CS-ducation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steff\Personal\CS Education\Python Introduction course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEB4C3B-D87C-4699-9FA5-3A24C59FAF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A914ED61-0A5A-473D-B6B3-B34398F2E730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>CS Introduction Lecture 15</t>
+  </si>
+  <si>
+    <t>Problem Set 3</t>
   </si>
 </sst>
 </file>
@@ -461,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE79405-D1A3-4A66-A83E-48D5F1755AB2}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -781,6 +784,66 @@
         <v>18</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>45815</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>45816</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>45817</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time logging.xlsx
+++ b/time logging.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steff\Personal\CS Education\Python Introduction course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffen\Arbejde\CS education\Introduction To CS and Programming Using Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A914ED61-0A5A-473D-B6B3-B34398F2E730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62A7A43-F310-4569-B8F9-C36736AC322D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Problem Set 3</t>
+  </si>
+  <si>
+    <t>CS Introduction Lecture 16</t>
   </si>
 </sst>
 </file>
@@ -464,18 +467,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE79405-D1A3-4A66-A83E-48D5F1755AB2}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -503,7 +506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45808</v>
       </c>
@@ -523,7 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45808</v>
       </c>
@@ -543,7 +546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45808</v>
       </c>
@@ -563,7 +566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45809</v>
       </c>
@@ -583,7 +586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45809</v>
       </c>
@@ -603,7 +606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45810</v>
       </c>
@@ -624,7 +627,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45810</v>
       </c>
@@ -644,7 +647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45811</v>
       </c>
@@ -664,7 +667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45811</v>
       </c>
@@ -684,7 +687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45812</v>
       </c>
@@ -704,7 +707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45813</v>
       </c>
@@ -724,7 +727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45813</v>
       </c>
@@ -744,7 +747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45813</v>
       </c>
@@ -764,7 +767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45814</v>
       </c>
@@ -784,7 +787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45815</v>
       </c>
@@ -804,7 +807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45816</v>
       </c>
@@ -824,7 +827,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45817</v>
       </c>
@@ -842,6 +845,46 @@
       </c>
       <c r="F19" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>45818</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>45819</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/time logging.xlsx
+++ b/time logging.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffen\Arbejde\CS education\Introduction To CS and Programming Using Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steff\Personal\CS Education\Python Introduction course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62A7A43-F310-4569-B8F9-C36736AC322D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17762901-CD1C-4C31-911E-1870A84C56A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>CS Introduction Lecture 16</t>
+  </si>
+  <si>
+    <t>CS Introduction Lecture 17</t>
   </si>
 </sst>
 </file>
@@ -467,18 +470,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE79405-D1A3-4A66-A83E-48D5F1755AB2}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -506,7 +509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>45808</v>
       </c>
@@ -526,7 +529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>45808</v>
       </c>
@@ -546,7 +549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>45808</v>
       </c>
@@ -566,7 +569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>45809</v>
       </c>
@@ -586,7 +589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>45809</v>
       </c>
@@ -606,7 +609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>45810</v>
       </c>
@@ -627,7 +630,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>45810</v>
       </c>
@@ -647,7 +650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>45811</v>
       </c>
@@ -667,7 +670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>45811</v>
       </c>
@@ -687,7 +690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>45812</v>
       </c>
@@ -707,7 +710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>45813</v>
       </c>
@@ -727,7 +730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>45813</v>
       </c>
@@ -747,7 +750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>45813</v>
       </c>
@@ -767,7 +770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>45814</v>
       </c>
@@ -787,7 +790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>45815</v>
       </c>
@@ -807,7 +810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>45816</v>
       </c>
@@ -827,7 +830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>45817</v>
       </c>
@@ -847,7 +850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>45818</v>
       </c>
@@ -867,7 +870,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>45819</v>
       </c>
@@ -886,6 +889,29 @@
       <c r="F21" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>45822</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/time logging.xlsx
+++ b/time logging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steff\Personal\CS Education\Python Introduction course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17762901-CD1C-4C31-911E-1870A84C56A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FEE2C8-0E8E-4952-85E1-4D3CC938FC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>CS Introduction Lecture 17</t>
+  </si>
+  <si>
+    <t>CS Introduction Lecture 18</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -911,7 +914,24 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>45822</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>41</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/time logging.xlsx
+++ b/time logging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steff\Personal\CS Education\Python Introduction course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FEE2C8-0E8E-4952-85E1-4D3CC938FC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E339ECF-777B-448F-81B0-FCE4D8735A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE79405-D1A3-4A66-A83E-48D5F1755AB2}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -933,6 +933,26 @@
         <v>22</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>45822</v>
+      </c>
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time logging.xlsx
+++ b/time logging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steff\Personal\CS Education\Python Introduction course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E339ECF-777B-448F-81B0-FCE4D8735A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4396506F-38D7-4618-B5EA-AF9DBA0B4362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>CS Introduction Lecture 18</t>
+  </si>
+  <si>
+    <t>Problem Set 4</t>
   </si>
 </sst>
 </file>
@@ -473,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE79405-D1A3-4A66-A83E-48D5F1755AB2}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -953,6 +956,46 @@
         <v>22</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>45822</v>
+      </c>
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>45823</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <v>11</v>
+      </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time logging.xlsx
+++ b/time logging.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steff\Personal\CS Education\Python Introduction course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffen\Arbejde\CS education\Introduction To CS and Programming Using Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4396506F-38D7-4618-B5EA-AF9DBA0B4362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38F2235-C7C3-4922-A716-282703686B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -476,18 +476,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE79405-D1A3-4A66-A83E-48D5F1755AB2}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -515,7 +515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45808</v>
       </c>
@@ -535,7 +535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45808</v>
       </c>
@@ -555,7 +555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45808</v>
       </c>
@@ -575,7 +575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45809</v>
       </c>
@@ -595,7 +595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45809</v>
       </c>
@@ -615,7 +615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45810</v>
       </c>
@@ -636,7 +636,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45810</v>
       </c>
@@ -656,7 +656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45811</v>
       </c>
@@ -676,7 +676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45811</v>
       </c>
@@ -696,7 +696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45812</v>
       </c>
@@ -716,7 +716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45813</v>
       </c>
@@ -736,7 +736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45813</v>
       </c>
@@ -756,7 +756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45813</v>
       </c>
@@ -776,7 +776,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45814</v>
       </c>
@@ -796,7 +796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45815</v>
       </c>
@@ -816,7 +816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45816</v>
       </c>
@@ -836,7 +836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45817</v>
       </c>
@@ -856,7 +856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45818</v>
       </c>
@@ -876,7 +876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45819</v>
       </c>
@@ -896,7 +896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45822</v>
       </c>
@@ -916,7 +916,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45822</v>
       </c>
@@ -936,7 +936,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45822</v>
       </c>
@@ -956,7 +956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45822</v>
       </c>
@@ -976,7 +976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45823</v>
       </c>
@@ -993,6 +993,26 @@
         <v>30</v>
       </c>
       <c r="F26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>45823</v>
+      </c>
+      <c r="B27">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
         <v>23</v>
       </c>
     </row>

--- a/time logging.xlsx
+++ b/time logging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffen\Arbejde\CS education\Introduction To CS and Programming Using Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38F2235-C7C3-4922-A716-282703686B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BBAA14-0078-4436-9BF7-A65F7B7A50CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Problem Set 4</t>
+  </si>
+  <si>
+    <t>CS Introduction Lecture 19</t>
+  </si>
+  <si>
+    <t>CS Introduction Lecture 20</t>
   </si>
 </sst>
 </file>
@@ -476,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE79405-D1A3-4A66-A83E-48D5F1755AB2}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1016,6 +1022,46 @@
         <v>23</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>45822</v>
+      </c>
+      <c r="B28">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>30</v>
+      </c>
+      <c r="D28">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>40</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time logging.xlsx
+++ b/time logging.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffen\Arbejde\CS education\Introduction To CS and Programming Using Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BBAA14-0078-4436-9BF7-A65F7B7A50CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881FF5E7-8E8A-451D-B571-2E3595222CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
+    <workbookView xWindow="38280" yWindow="-1980" windowWidth="16440" windowHeight="28440" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -482,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE79405-D1A3-4A66-A83E-48D5F1755AB2}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1062,6 +1062,26 @@
         <v>25</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>45825</v>
+      </c>
+      <c r="B30">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>23</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time logging.xlsx
+++ b/time logging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffen\Arbejde\CS education\Introduction To CS and Programming Using Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881FF5E7-8E8A-451D-B571-2E3595222CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A749593A-18F0-4134-9CE0-582FE143039F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-1980" windowWidth="16440" windowHeight="28440" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>CS Introduction Lecture 20</t>
+  </si>
+  <si>
+    <t>CS Introduction Lecture 21</t>
+  </si>
+  <si>
+    <t>CS Introduction Lecture 22</t>
   </si>
 </sst>
 </file>
@@ -482,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE79405-D1A3-4A66-A83E-48D5F1755AB2}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1082,6 +1088,46 @@
         <v>25</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>45826</v>
+      </c>
+      <c r="B31">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>50</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>45826</v>
+      </c>
+      <c r="B32">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time logging.xlsx
+++ b/time logging.xlsx
@@ -8,46 +8,48 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffen\Arbejde\CS education\Introduction To CS and Programming Using Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A749593A-18F0-4134-9CE0-582FE143039F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1695C941-4314-4A4A-B869-B83AF24E5135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-1980" windowWidth="16440" windowHeight="28440" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId2"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
     <t>CS Introduction lecture 5</t>
   </si>
   <si>
-    <t>Hour</t>
-  </si>
-  <si>
-    <t>Minute</t>
-  </si>
-  <si>
     <t>CS Introduction lecture 6</t>
   </si>
   <si>
@@ -108,7 +110,40 @@
     <t>CS Introduction Lecture 21</t>
   </si>
   <si>
-    <t>CS Introduction Lecture 22</t>
+    <t>CS Introduction Lecture 23</t>
+  </si>
+  <si>
+    <t>CS Introduction Lecture 21 + 22</t>
+  </si>
+  <si>
+    <t>Hours spent</t>
+  </si>
+  <si>
+    <t>CS Introduction Lecture 24</t>
+  </si>
+  <si>
+    <t>Start - Hour</t>
+  </si>
+  <si>
+    <t>Start - Minute</t>
+  </si>
+  <si>
+    <t>End - Hour</t>
+  </si>
+  <si>
+    <t>End - Minute</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Hours spent</t>
+  </si>
+  <si>
+    <t>Problem Set 5</t>
   </si>
 </sst>
 </file>
@@ -150,15 +185,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -169,6 +213,511 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Steffen Schmidt Lorenzen" refreshedDate="45830.538165509257" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="32" xr:uid="{1ADF6AA0-1DE7-4FCC-B02E-09BFF23DB464}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-05-31T00:00:00" maxDate="2025-06-23T00:00:00"/>
+    </cacheField>
+    <cacheField name="Start - Hour" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7" maxValue="21"/>
+    </cacheField>
+    <cacheField name="Start - Minute" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="50"/>
+    </cacheField>
+    <cacheField name="End - Hour" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="23"/>
+    </cacheField>
+    <cacheField name="End - Minute" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="58"/>
+    </cacheField>
+    <cacheField name="Task" numFmtId="0">
+      <sharedItems count="23">
+        <s v="CS Introduction lecture 5"/>
+        <s v="CS Introduction lecture 6"/>
+        <s v="CS Introduction lecture 7"/>
+        <s v="CS Introduction lecture 8"/>
+        <s v="CS Introduction lecture 9"/>
+        <s v="Problem Set 1"/>
+        <s v="CS introduction lecture11"/>
+        <s v="Problem Set 2"/>
+        <s v="CS introduction Lecture 12"/>
+        <s v="CS Introduction Lecture 13"/>
+        <s v="CS Introduction Lecture 14"/>
+        <s v="CS Introduction Lecture 15"/>
+        <s v="Problem Set 3"/>
+        <s v="CS Introduction Lecture 16"/>
+        <s v="CS Introduction Lecture 17"/>
+        <s v="CS Introduction Lecture 18"/>
+        <s v="Problem Set 4"/>
+        <s v="CS Introduction Lecture 19"/>
+        <s v="CS Introduction Lecture 20"/>
+        <s v="CS Introduction Lecture 21"/>
+        <s v="CS Introduction Lecture 21 + 22"/>
+        <s v="CS Introduction Lecture 23"/>
+        <s v="CS Introduction Lecture 24"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Hours spent" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.46666666661622003" maxValue="4.0499999999301508"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="32">
+  <r>
+    <d v="2025-05-31T00:00:00"/>
+    <n v="15"/>
+    <n v="40"/>
+    <n v="17"/>
+    <n v="18"/>
+    <x v="0"/>
+    <n v="1.6333333332440816"/>
+  </r>
+  <r>
+    <d v="2025-05-31T00:00:00"/>
+    <n v="18"/>
+    <n v="30"/>
+    <n v="18"/>
+    <n v="58"/>
+    <x v="0"/>
+    <n v="0.46666666661622003"/>
+  </r>
+  <r>
+    <d v="2025-05-31T00:00:00"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="21"/>
+    <n v="30"/>
+    <x v="1"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <d v="2025-06-01T00:00:00"/>
+    <n v="11"/>
+    <n v="15"/>
+    <n v="12"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="0.75"/>
+  </r>
+  <r>
+    <d v="2025-06-01T00:00:00"/>
+    <n v="12"/>
+    <n v="22"/>
+    <n v="15"/>
+    <n v="3"/>
+    <x v="3"/>
+    <n v="2.6833333333488554"/>
+  </r>
+  <r>
+    <d v="2025-06-02T00:00:00"/>
+    <n v="19"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="18"/>
+    <x v="4"/>
+    <n v="2.1333333333022892"/>
+  </r>
+  <r>
+    <d v="2025-06-02T00:00:00"/>
+    <n v="21"/>
+    <n v="30"/>
+    <n v="22"/>
+    <n v="20"/>
+    <x v="5"/>
+    <n v="0.83333333325572312"/>
+  </r>
+  <r>
+    <d v="2025-06-03T00:00:00"/>
+    <n v="19"/>
+    <n v="0"/>
+    <n v="19"/>
+    <n v="37"/>
+    <x v="6"/>
+    <n v="0.61666666675591841"/>
+  </r>
+  <r>
+    <d v="2025-06-03T00:00:00"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="21"/>
+    <n v="40"/>
+    <x v="7"/>
+    <n v="1.6666666666860692"/>
+  </r>
+  <r>
+    <d v="2025-06-04T00:00:00"/>
+    <n v="21"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="38"/>
+    <x v="8"/>
+    <n v="1.4666666667326353"/>
+  </r>
+  <r>
+    <d v="2025-06-05T00:00:00"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="47"/>
+    <x v="8"/>
+    <n v="0.53333333332557231"/>
+  </r>
+  <r>
+    <d v="2025-06-05T00:00:00"/>
+    <n v="15"/>
+    <n v="50"/>
+    <n v="17"/>
+    <n v="14"/>
+    <x v="9"/>
+    <n v="1.4000000000232831"/>
+  </r>
+  <r>
+    <d v="2025-06-05T00:00:00"/>
+    <n v="17"/>
+    <n v="15"/>
+    <n v="18"/>
+    <n v="13"/>
+    <x v="10"/>
+    <n v="0.96666666667442769"/>
+  </r>
+  <r>
+    <d v="2025-06-06T00:00:00"/>
+    <n v="14"/>
+    <n v="45"/>
+    <n v="15"/>
+    <n v="30"/>
+    <x v="11"/>
+    <n v="0.75"/>
+  </r>
+  <r>
+    <d v="2025-06-07T00:00:00"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="20"/>
+    <n v="45"/>
+    <x v="12"/>
+    <n v="0.75"/>
+  </r>
+  <r>
+    <d v="2025-06-08T00:00:00"/>
+    <n v="7"/>
+    <n v="15"/>
+    <n v="8"/>
+    <n v="20"/>
+    <x v="12"/>
+    <n v="1.0833333331975155"/>
+  </r>
+  <r>
+    <d v="2025-06-09T00:00:00"/>
+    <n v="19"/>
+    <n v="25"/>
+    <n v="23"/>
+    <n v="28"/>
+    <x v="12"/>
+    <n v="4.0499999999301508"/>
+  </r>
+  <r>
+    <d v="2025-06-10T00:00:00"/>
+    <n v="18"/>
+    <n v="50"/>
+    <n v="21"/>
+    <n v="46"/>
+    <x v="13"/>
+    <n v="2.9333333334652707"/>
+  </r>
+  <r>
+    <d v="2025-06-11T00:00:00"/>
+    <n v="19"/>
+    <n v="10"/>
+    <n v="19"/>
+    <n v="50"/>
+    <x v="13"/>
+    <n v="0.66666666674427688"/>
+  </r>
+  <r>
+    <d v="2025-06-14T00:00:00"/>
+    <n v="10"/>
+    <n v="40"/>
+    <n v="11"/>
+    <n v="30"/>
+    <x v="14"/>
+    <n v="0.83333333325572312"/>
+  </r>
+  <r>
+    <d v="2025-06-14T00:00:00"/>
+    <n v="11"/>
+    <n v="41"/>
+    <n v="12"/>
+    <n v="17"/>
+    <x v="15"/>
+    <n v="0.6000000000349246"/>
+  </r>
+  <r>
+    <d v="2025-06-14T00:00:00"/>
+    <n v="14"/>
+    <n v="30"/>
+    <n v="15"/>
+    <n v="30"/>
+    <x v="15"/>
+    <n v="1.0000000001164153"/>
+  </r>
+  <r>
+    <d v="2025-06-14T00:00:00"/>
+    <n v="21"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="10"/>
+    <x v="16"/>
+    <n v="0.99999999994179234"/>
+  </r>
+  <r>
+    <d v="2025-06-15T00:00:00"/>
+    <n v="9"/>
+    <n v="40"/>
+    <n v="11"/>
+    <n v="30"/>
+    <x v="16"/>
+    <n v="1.8333333331975155"/>
+  </r>
+  <r>
+    <d v="2025-06-15T00:00:00"/>
+    <n v="17"/>
+    <n v="40"/>
+    <n v="18"/>
+    <n v="30"/>
+    <x v="16"/>
+    <n v="0.8333333334303461"/>
+  </r>
+  <r>
+    <d v="2025-06-14T00:00:00"/>
+    <n v="15"/>
+    <n v="30"/>
+    <n v="16"/>
+    <n v="40"/>
+    <x v="17"/>
+    <n v="1.1666666666278616"/>
+  </r>
+  <r>
+    <d v="2025-06-16T00:00:00"/>
+    <n v="20"/>
+    <n v="35"/>
+    <n v="21"/>
+    <n v="33"/>
+    <x v="18"/>
+    <n v="0.96666666667442769"/>
+  </r>
+  <r>
+    <d v="2025-06-17T00:00:00"/>
+    <n v="19"/>
+    <n v="23"/>
+    <n v="20"/>
+    <n v="11"/>
+    <x v="18"/>
+    <n v="0.79999999998835847"/>
+  </r>
+  <r>
+    <d v="2025-06-18T00:00:00"/>
+    <n v="18"/>
+    <n v="20"/>
+    <n v="18"/>
+    <n v="50"/>
+    <x v="19"/>
+    <n v="0.49999999988358468"/>
+  </r>
+  <r>
+    <d v="2025-06-18T00:00:00"/>
+    <n v="19"/>
+    <n v="5"/>
+    <n v="20"/>
+    <n v="23"/>
+    <x v="20"/>
+    <n v="1.3000000000465661"/>
+  </r>
+  <r>
+    <d v="2025-06-21T00:00:00"/>
+    <n v="16"/>
+    <n v="14"/>
+    <n v="17"/>
+    <n v="37"/>
+    <x v="21"/>
+    <n v="1.3833333333022892"/>
+  </r>
+  <r>
+    <d v="2025-06-22T00:00:00"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="11"/>
+    <n v="10"/>
+    <x v="22"/>
+    <n v="0.80000000016298145"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{349721D7-A7F9-4373-A987-C2AA568098F0}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M2:N26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="24">
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="24">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Hours spent" fld="6" baseField="5" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{506E921C-B56C-42E3-B57F-5E07C7D67715}" name="Table1" displayName="Table1" ref="A1:G34" totalsRowShown="0">
+  <autoFilter ref="A1:G34" xr:uid="{506E921C-B56C-42E3-B57F-5E07C7D67715}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{870591CE-71E7-424B-86CA-4A7D607D23B1}" name="Date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{076439FD-8A40-4ABC-82A6-66413EA87918}" name="Start - Hour"/>
+    <tableColumn id="3" xr3:uid="{3F950110-D771-4B0C-A921-5A8A095FE92E}" name="Start - Minute"/>
+    <tableColumn id="4" xr3:uid="{A4EEB10E-191A-40D0-9735-4C763958E80E}" name="End - Hour"/>
+    <tableColumn id="5" xr3:uid="{F14DE25A-7480-4877-8519-447236EA938A}" name="End - Minute"/>
+    <tableColumn id="6" xr3:uid="{33CCFDA6-050A-4C35-BB47-160145DB1612}" name="Task"/>
+    <tableColumn id="7" xr3:uid="{DAB80146-57BC-46F5-AAA2-F6432F990ED8}" name="Hours spent">
+      <calculatedColumnFormula>((TIME(D2, E2, 0) + A2) - (TIME(B2, C2, 0) + A2)) * 24</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -488,247 +1037,401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE79405-D1A3-4A66-A83E-48D5F1755AB2}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" customWidth="1"/>
+    <col min="13" max="13" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <f>((TIME(D2, E2, 0) + A2) - (TIME(B2, C2, 0) + A2)) * 24</f>
+        <v>1.6333333332440816</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45808</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>((TIME(D3, E3, 0) + A3) - (TIME(B3, C3, 0) + A3)) * 24</f>
+        <v>0.46666666661622003</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2.0000000000582077</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45808</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
         <v>30</v>
       </c>
-      <c r="D4">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>58</v>
-      </c>
       <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f>((TIME(D4, E4, 0) + A4) - (TIME(B4, C4, 0) + A4)) * 24</f>
+        <v>1.5</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.4000000000232831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>45808</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <f>((TIME(D5, E5, 0) + A5) - (TIME(B5, C5, 0) + A5)) * 24</f>
+        <v>0.75</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.96666666667442769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45809</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
         <v>15</v>
       </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f>((TIME(D6, E6, 0) + A6) - (TIME(B6, C6, 0) + A6)) * 24</f>
+        <v>2.6833333333488554</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>45809</v>
+        <v>45810</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <f>((TIME(D7, E7, 0) + A7) - (TIME(B7, C7, 0) + A7)) * 24</f>
+        <v>2.1333333333022892</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3.6000000002095476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45810</v>
       </c>
       <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <f>((TIME(D8, E8, 0) + A8) - (TIME(B8, C8, 0) + A8)) * 24</f>
+        <v>0.83333333325572312</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.83333333325572312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>45811</v>
+      </c>
+      <c r="B9">
         <v>19</v>
       </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>21</v>
-      </c>
-      <c r="E8">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <f>((TIME(D9, E9, 0) + A9) - (TIME(B9, C9, 0) + A9)) * 24</f>
+        <v>0.61666666675591841</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>45810</v>
-      </c>
-      <c r="B9">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="N9" s="2">
+        <v>1.6000000001513399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45811</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <f>((TIME(D10, E10, 0) + A10) - (TIME(B10, C10, 0) + A10)) * 24</f>
+        <v>1.6666666666860692</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1.1666666666278616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D11">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <f>((TIME(D11, E11, 0) + A11) - (TIME(B11, C11, 0) + A11)) * 24</f>
+        <v>1.4666666667326353</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="N11" s="2">
+        <v>1.7666666666627862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>45812</v>
+        <v>45813</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <f>((TIME(D12, E12, 0) + A12) - (TIME(B12, C12, 0) + A12)) * 24</f>
+        <v>0.53333333332557231</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E12">
-        <v>38</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="N12" s="2">
+        <v>0.49999999988358468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45813</v>
       </c>
@@ -736,401 +1439,662 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E13">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <f>((TIME(D13, E13, 0) + A13) - (TIME(B13, C13, 0) + A13)) * 24</f>
+        <v>1.4000000000232831</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1.3000000000465661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45813</v>
       </c>
       <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="C14">
         <v>15</v>
       </c>
-      <c r="C14">
+      <c r="D14">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <f>((TIME(D14, E14, 0) + A14) - (TIME(B14, C14, 0) + A14)) * 24</f>
+        <v>0.96666666667442769</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1.3833333333022892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>45814</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <f>((TIME(D15, E15, 0) + A15) - (TIME(B15, C15, 0) + A15)) * 24</f>
+        <v>0.75</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.80000000016298145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>45815</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <f>((TIME(D16, E16, 0) + A16) - (TIME(B16, C16, 0) + A16)) * 24</f>
+        <v>0.75</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="2">
+        <v>2.0999999998603016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>45816</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <f>((TIME(D17, E17, 0) + A17) - (TIME(B17, C17, 0) + A17)) * 24</f>
+        <v>1.0833333331975155</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>45817</v>
+      </c>
+      <c r="B18">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <f>((TIME(D18, E18, 0) + A18) - (TIME(B18, C18, 0) + A18)) * 24</f>
+        <v>4.0499999999301508</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>45818</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
         <v>50</v>
       </c>
-      <c r="D14">
+      <c r="D19">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>46</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <f>((TIME(D19, E19, 0) + A19) - (TIME(B19, C19, 0) + A19)) * 24</f>
+        <v>2.9333333334652707</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="2">
+        <v>2.6833333333488554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>45819</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <f>((TIME(D20, E20, 0) + A20) - (TIME(B20, C20, 0) + A20)) * 24</f>
+        <v>0.66666666674427688</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="2">
+        <v>2.1333333333022892</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>45822</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
         <v>17</v>
       </c>
-      <c r="E14">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>45813</v>
-      </c>
-      <c r="B15">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>18</v>
-      </c>
-      <c r="E15">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>45814</v>
-      </c>
-      <c r="B16">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>45</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>45815</v>
-      </c>
-      <c r="B17">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>45</v>
-      </c>
-      <c r="F17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>45816</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>15</v>
-      </c>
-      <c r="D18">
+      <c r="G21">
+        <f>((TIME(D21, E21, 0) + A21) - (TIME(B21, C21, 0) + A21)) * 24</f>
+        <v>0.83333333325572312</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E18">
-        <v>20</v>
-      </c>
-      <c r="F18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>45817</v>
-      </c>
-      <c r="B19">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>25</v>
-      </c>
-      <c r="D19">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>28</v>
-      </c>
-      <c r="F19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>45818</v>
-      </c>
-      <c r="B20">
-        <v>18</v>
-      </c>
-      <c r="C20">
-        <v>50</v>
-      </c>
-      <c r="D20">
-        <v>21</v>
-      </c>
-      <c r="E20">
-        <v>46</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>45819</v>
-      </c>
-      <c r="B21">
-        <v>19</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>19</v>
-      </c>
-      <c r="E21">
-        <v>50</v>
-      </c>
-      <c r="F21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="N21" s="2">
+        <v>0.61666666675591841</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45822</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="G22">
+        <f>((TIME(D22, E22, 0) + A22) - (TIME(B22, C22, 0) + A22)) * 24</f>
+        <v>0.6000000000349246</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.83333333325572312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45822</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C23">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E23">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="G23">
+        <f>((TIME(D23, E23, 0) + A23) - (TIME(B23, C23, 0) + A23)) * 24</f>
+        <v>1.0000000001164153</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1.6666666666860692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45822</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <f>((TIME(D24, E24, 0) + A24) - (TIME(B24, C24, 0) + A24)) * 24</f>
+        <v>0.99999999994179234</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="2">
+        <v>5.8833333331276663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>45823</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25">
         <v>30</v>
       </c>
-      <c r="D24">
-        <v>15</v>
-      </c>
-      <c r="E24">
-        <v>30</v>
-      </c>
-      <c r="F24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>45822</v>
-      </c>
-      <c r="B25">
-        <v>21</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <v>22</v>
-      </c>
-      <c r="E25">
-        <v>10</v>
-      </c>
       <c r="F25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="G25">
+        <f>((TIME(D25, E25, 0) + A25) - (TIME(B25, C25, 0) + A25)) * 24</f>
+        <v>1.8333333331975155</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="2">
+        <v>3.6666666665696539</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45823</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C26">
         <v>40</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>30</v>
       </c>
       <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26">
+        <f>((TIME(D26, E26, 0) + A26) - (TIME(B26, C26, 0) + A26)) * 24</f>
+        <v>0.8333333334303461</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" s="2">
+        <v>39.899999999965075</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>45822</v>
+      </c>
+      <c r="B27">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <f>((TIME(D27, E27, 0) + A27) - (TIME(B27, C27, 0) + A27)) * 24</f>
+        <v>1.1666666666278616</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28">
+        <f>((TIME(D28, E28, 0) + A28) - (TIME(B28, C28, 0) + A28)) * 24</f>
+        <v>0.96666666667442769</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>45825</v>
+      </c>
+      <c r="B29">
+        <v>19</v>
+      </c>
+      <c r="C29">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>45823</v>
-      </c>
-      <c r="B27">
-        <v>17</v>
-      </c>
-      <c r="C27">
-        <v>40</v>
-      </c>
-      <c r="D27">
+      <c r="D29">
+        <v>20</v>
+      </c>
+      <c r="E29">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29">
+        <f>((TIME(D29, E29, 0) + A29) - (TIME(B29, C29, 0) + A29)) * 24</f>
+        <v>0.79999999998835847</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>45826</v>
+      </c>
+      <c r="B30">
         <v>18</v>
       </c>
-      <c r="E27">
-        <v>30</v>
-      </c>
-      <c r="F27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>45822</v>
-      </c>
-      <c r="B28">
-        <v>15</v>
-      </c>
-      <c r="C28">
-        <v>30</v>
-      </c>
-      <c r="D28">
-        <v>16</v>
-      </c>
-      <c r="E28">
-        <v>40</v>
-      </c>
-      <c r="F28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>45824</v>
-      </c>
-      <c r="B29">
+      <c r="C30">
         <v>20</v>
       </c>
-      <c r="C29">
-        <v>35</v>
-      </c>
-      <c r="D29">
-        <v>21</v>
-      </c>
-      <c r="E29">
-        <v>33</v>
-      </c>
-      <c r="F29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>45825</v>
-      </c>
-      <c r="B30">
-        <v>19</v>
-      </c>
-      <c r="C30">
-        <v>23</v>
-      </c>
       <c r="D30">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E30">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="G30">
+        <f>((TIME(D30, E30, 0) + A30) - (TIME(B30, C30, 0) + A30)) * 24</f>
+        <v>0.49999999988358468</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45826</v>
       </c>
       <c r="B31">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31">
+        <f>((TIME(D31, E31, 0) + A31) - (TIME(B31, C31, 0) + A31)) * 24</f>
+        <v>1.3000000000465661</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>45829</v>
+      </c>
+      <c r="B32">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>17</v>
+      </c>
+      <c r="E32">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32">
+        <f>((TIME(D32, E32, 0) + A32) - (TIME(B32, C32, 0) + A32)) * 24</f>
+        <v>1.3833333333022892</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>45830</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>22</v>
+      </c>
+      <c r="D33">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33">
+        <f>((TIME(D33, E33, 0) + A33) - (TIME(B33, C33, 0) + A33)) * 24</f>
+        <v>0.80000000016298145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>45830</v>
+      </c>
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>50</v>
+      </c>
+      <c r="D34">
         <v>18</v>
       </c>
-      <c r="C31">
-        <v>20</v>
-      </c>
-      <c r="D31">
-        <v>18</v>
-      </c>
-      <c r="E31">
-        <v>50</v>
-      </c>
-      <c r="F31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>45826</v>
-      </c>
-      <c r="B32">
-        <v>19</v>
-      </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-      <c r="D32">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>23</v>
-      </c>
-      <c r="F32" t="s">
-        <v>27</v>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34">
+        <f>((TIME(D34, E34, 0) + A34) - (TIME(B34, C34, 0) + A34)) * 24</f>
+        <v>2.1666666667442769</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/time logging.xlsx
+++ b/time logging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffen\Arbejde\CS education\Introduction To CS and Programming Using Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1695C941-4314-4A4A-B869-B83AF24E5135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83727109-78FB-4453-BF11-AD00A2B3B945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Problem Set 5</t>
+  </si>
+  <si>
+    <t>CS Introduction Lecture 25</t>
   </si>
 </sst>
 </file>
@@ -703,8 +706,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{506E921C-B56C-42E3-B57F-5E07C7D67715}" name="Table1" displayName="Table1" ref="A1:G34" totalsRowShown="0">
-  <autoFilter ref="A1:G34" xr:uid="{506E921C-B56C-42E3-B57F-5E07C7D67715}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{506E921C-B56C-42E3-B57F-5E07C7D67715}" name="Table1" displayName="Table1" ref="A1:G36" totalsRowShown="0">
+  <autoFilter ref="A1:G36" xr:uid="{506E921C-B56C-42E3-B57F-5E07C7D67715}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{870591CE-71E7-424B-86CA-4A7D607D23B1}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{076439FD-8A40-4ABC-82A6-66413EA87918}" name="Start - Hour"/>
@@ -1037,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE79405-D1A3-4A66-A83E-48D5F1755AB2}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2089,6 +2092,54 @@
         <v>2.1666666667442769</v>
       </c>
     </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>45830</v>
+      </c>
+      <c r="B35">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>53</v>
+      </c>
+      <c r="F35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35">
+        <f>((TIME(D35, E35, 0) + A35) - (TIME(B35, C35, 0) + A35)) * 24</f>
+        <v>1.8833333333604969</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>45830</v>
+      </c>
+      <c r="B36">
+        <v>21</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>21</v>
+      </c>
+      <c r="E36">
+        <v>31</v>
+      </c>
+      <c r="F36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36">
+        <f>((TIME(D36, E36, 0) + A36) - (TIME(B36, C36, 0) + A36)) * 24</f>
+        <v>0.5166666666045785</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time logging.xlsx
+++ b/time logging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffen\Arbejde\CS education\Introduction To CS and Programming Using Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83727109-78FB-4453-BF11-AD00A2B3B945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15B241F-77ED-4E10-B8C5-FB9A530DCF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{A6E14872-8F24-4185-8E44-B3E9C0784B59}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>CS Introduction Lecture 25</t>
+  </si>
+  <si>
+    <t>CS Introduction Lecture 26</t>
   </si>
 </sst>
 </file>
@@ -219,7 +222,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Steffen Schmidt Lorenzen" refreshedDate="45830.538165509257" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="32" xr:uid="{1ADF6AA0-1DE7-4FCC-B02E-09BFF23DB464}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Steffen Schmidt Lorenzen" refreshedDate="45830.897196990743" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="35" xr:uid="{1ADF6AA0-1DE7-4FCC-B02E-09BFF23DB464}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -240,7 +243,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="58"/>
     </cacheField>
     <cacheField name="Task" numFmtId="0">
-      <sharedItems count="23">
+      <sharedItems count="25">
         <s v="CS Introduction lecture 5"/>
         <s v="CS Introduction lecture 6"/>
         <s v="CS Introduction lecture 7"/>
@@ -264,6 +267,8 @@
         <s v="CS Introduction Lecture 21 + 22"/>
         <s v="CS Introduction Lecture 23"/>
         <s v="CS Introduction Lecture 24"/>
+        <s v="Problem Set 5"/>
+        <s v="CS Introduction Lecture 25"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Hours spent" numFmtId="0">
@@ -279,7 +284,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="32">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="35">
   <r>
     <d v="2025-05-31T00:00:00"/>
     <n v="15"/>
@@ -568,12 +573,39 @@
     <x v="22"/>
     <n v="0.80000000016298145"/>
   </r>
+  <r>
+    <d v="2025-06-22T00:00:00"/>
+    <n v="15"/>
+    <n v="50"/>
+    <n v="18"/>
+    <n v="0"/>
+    <x v="23"/>
+    <n v="2.1666666667442769"/>
+  </r>
+  <r>
+    <d v="2025-06-22T00:00:00"/>
+    <n v="19"/>
+    <n v="0"/>
+    <n v="20"/>
+    <n v="53"/>
+    <x v="23"/>
+    <n v="1.8833333333604969"/>
+  </r>
+  <r>
+    <d v="2025-06-22T00:00:00"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="21"/>
+    <n v="31"/>
+    <x v="24"/>
+    <n v="0.5166666666045785"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{349721D7-A7F9-4373-A987-C2AA568098F0}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M2:N26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{349721D7-A7F9-4373-A987-C2AA568098F0}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M2:N28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
@@ -581,7 +613,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="24">
+      <items count="26">
         <item x="8"/>
         <item x="9"/>
         <item x="10"/>
@@ -605,6 +637,8 @@
         <item x="7"/>
         <item x="12"/>
         <item x="16"/>
+        <item x="23"/>
+        <item x="24"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -613,7 +647,7 @@
   <rowFields count="1">
     <field x="5"/>
   </rowFields>
-  <rowItems count="24">
+  <rowItems count="26">
     <i>
       <x/>
     </i>
@@ -682,6 +716,12 @@
     </i>
     <i>
       <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
     </i>
     <i t="grand">
       <x/>
@@ -706,8 +746,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{506E921C-B56C-42E3-B57F-5E07C7D67715}" name="Table1" displayName="Table1" ref="A1:G36" totalsRowShown="0">
-  <autoFilter ref="A1:G36" xr:uid="{506E921C-B56C-42E3-B57F-5E07C7D67715}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{506E921C-B56C-42E3-B57F-5E07C7D67715}" name="Table1" displayName="Table1" ref="A1:G37" totalsRowShown="0">
+  <autoFilter ref="A1:G37" xr:uid="{506E921C-B56C-42E3-B57F-5E07C7D67715}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{870591CE-71E7-424B-86CA-4A7D607D23B1}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{076439FD-8A40-4ABC-82A6-66413EA87918}" name="Start - Hour"/>
@@ -1040,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE79405-D1A3-4A66-A83E-48D5F1755AB2}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1102,7 +1142,7 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <f>((TIME(D2, E2, 0) + A2) - (TIME(B2, C2, 0) + A2)) * 24</f>
+        <f t="shared" ref="G2:G36" si="0">((TIME(D2, E2, 0) + A2) - (TIME(B2, C2, 0) + A2)) * 24</f>
         <v>1.6333333332440816</v>
       </c>
       <c r="K2" s="3"/>
@@ -1134,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <f>((TIME(D3, E3, 0) + A3) - (TIME(B3, C3, 0) + A3)) * 24</f>
+        <f t="shared" si="0"/>
         <v>0.46666666661622003</v>
       </c>
       <c r="K3" s="3"/>
@@ -1166,7 +1206,7 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <f>((TIME(D4, E4, 0) + A4) - (TIME(B4, C4, 0) + A4)) * 24</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="K4" s="3"/>
@@ -1198,7 +1238,7 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <f>((TIME(D5, E5, 0) + A5) - (TIME(B5, C5, 0) + A5)) * 24</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="K5" s="3"/>
@@ -1230,7 +1270,7 @@
         <v>5</v>
       </c>
       <c r="G6">
-        <f>((TIME(D6, E6, 0) + A6) - (TIME(B6, C6, 0) + A6)) * 24</f>
+        <f t="shared" si="0"/>
         <v>2.6833333333488554</v>
       </c>
       <c r="K6" s="3"/>
@@ -1262,7 +1302,7 @@
         <v>6</v>
       </c>
       <c r="G7">
-        <f>((TIME(D7, E7, 0) + A7) - (TIME(B7, C7, 0) + A7)) * 24</f>
+        <f t="shared" si="0"/>
         <v>2.1333333333022892</v>
       </c>
       <c r="K7" s="3"/>
@@ -1294,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="G8">
-        <f>((TIME(D8, E8, 0) + A8) - (TIME(B8, C8, 0) + A8)) * 24</f>
+        <f t="shared" si="0"/>
         <v>0.83333333325572312</v>
       </c>
       <c r="K8" s="3"/>
@@ -1326,7 +1366,7 @@
         <v>8</v>
       </c>
       <c r="G9">
-        <f>((TIME(D9, E9, 0) + A9) - (TIME(B9, C9, 0) + A9)) * 24</f>
+        <f t="shared" si="0"/>
         <v>0.61666666675591841</v>
       </c>
       <c r="K9" s="3"/>
@@ -1358,7 +1398,7 @@
         <v>9</v>
       </c>
       <c r="G10">
-        <f>((TIME(D10, E10, 0) + A10) - (TIME(B10, C10, 0) + A10)) * 24</f>
+        <f t="shared" si="0"/>
         <v>1.6666666666860692</v>
       </c>
       <c r="K10" s="3"/>
@@ -1390,7 +1430,7 @@
         <v>10</v>
       </c>
       <c r="G11">
-        <f>((TIME(D11, E11, 0) + A11) - (TIME(B11, C11, 0) + A11)) * 24</f>
+        <f t="shared" si="0"/>
         <v>1.4666666667326353</v>
       </c>
       <c r="K11" s="3"/>
@@ -1422,7 +1462,7 @@
         <v>11</v>
       </c>
       <c r="G12">
-        <f>((TIME(D12, E12, 0) + A12) - (TIME(B12, C12, 0) + A12)) * 24</f>
+        <f t="shared" si="0"/>
         <v>0.53333333332557231</v>
       </c>
       <c r="K12" s="3"/>
@@ -1454,7 +1494,7 @@
         <v>12</v>
       </c>
       <c r="G13">
-        <f>((TIME(D13, E13, 0) + A13) - (TIME(B13, C13, 0) + A13)) * 24</f>
+        <f t="shared" si="0"/>
         <v>1.4000000000232831</v>
       </c>
       <c r="K13" s="3"/>
@@ -1486,7 +1526,7 @@
         <v>13</v>
       </c>
       <c r="G14">
-        <f>((TIME(D14, E14, 0) + A14) - (TIME(B14, C14, 0) + A14)) * 24</f>
+        <f t="shared" si="0"/>
         <v>0.96666666667442769</v>
       </c>
       <c r="K14" s="3"/>
@@ -1518,7 +1558,7 @@
         <v>14</v>
       </c>
       <c r="G15">
-        <f>((TIME(D15, E15, 0) + A15) - (TIME(B15, C15, 0) + A15)) * 24</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="K15" s="3"/>
@@ -1550,7 +1590,7 @@
         <v>15</v>
       </c>
       <c r="G16">
-        <f>((TIME(D16, E16, 0) + A16) - (TIME(B16, C16, 0) + A16)) * 24</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="K16" s="3"/>
@@ -1582,7 +1622,7 @@
         <v>15</v>
       </c>
       <c r="G17">
-        <f>((TIME(D17, E17, 0) + A17) - (TIME(B17, C17, 0) + A17)) * 24</f>
+        <f t="shared" si="0"/>
         <v>1.0833333331975155</v>
       </c>
       <c r="K17" s="3"/>
@@ -1614,7 +1654,7 @@
         <v>15</v>
       </c>
       <c r="G18">
-        <f>((TIME(D18, E18, 0) + A18) - (TIME(B18, C18, 0) + A18)) * 24</f>
+        <f t="shared" si="0"/>
         <v>4.0499999999301508</v>
       </c>
       <c r="K18" s="3"/>
@@ -1646,7 +1686,7 @@
         <v>16</v>
       </c>
       <c r="G19">
-        <f>((TIME(D19, E19, 0) + A19) - (TIME(B19, C19, 0) + A19)) * 24</f>
+        <f t="shared" si="0"/>
         <v>2.9333333334652707</v>
       </c>
       <c r="K19" s="3"/>
@@ -1678,7 +1718,7 @@
         <v>16</v>
       </c>
       <c r="G20">
-        <f>((TIME(D20, E20, 0) + A20) - (TIME(B20, C20, 0) + A20)) * 24</f>
+        <f t="shared" si="0"/>
         <v>0.66666666674427688</v>
       </c>
       <c r="K20" s="3"/>
@@ -1710,7 +1750,7 @@
         <v>17</v>
       </c>
       <c r="G21">
-        <f>((TIME(D21, E21, 0) + A21) - (TIME(B21, C21, 0) + A21)) * 24</f>
+        <f t="shared" si="0"/>
         <v>0.83333333325572312</v>
       </c>
       <c r="K21" s="3"/>
@@ -1742,7 +1782,7 @@
         <v>18</v>
       </c>
       <c r="G22">
-        <f>((TIME(D22, E22, 0) + A22) - (TIME(B22, C22, 0) + A22)) * 24</f>
+        <f t="shared" si="0"/>
         <v>0.6000000000349246</v>
       </c>
       <c r="K22" s="3"/>
@@ -1774,7 +1814,7 @@
         <v>18</v>
       </c>
       <c r="G23">
-        <f>((TIME(D23, E23, 0) + A23) - (TIME(B23, C23, 0) + A23)) * 24</f>
+        <f t="shared" si="0"/>
         <v>1.0000000001164153</v>
       </c>
       <c r="K23" s="3"/>
@@ -1806,7 +1846,7 @@
         <v>19</v>
       </c>
       <c r="G24">
-        <f>((TIME(D24, E24, 0) + A24) - (TIME(B24, C24, 0) + A24)) * 24</f>
+        <f t="shared" si="0"/>
         <v>0.99999999994179234</v>
       </c>
       <c r="K24" s="3"/>
@@ -1838,7 +1878,7 @@
         <v>19</v>
       </c>
       <c r="G25">
-        <f>((TIME(D25, E25, 0) + A25) - (TIME(B25, C25, 0) + A25)) * 24</f>
+        <f t="shared" si="0"/>
         <v>1.8333333331975155</v>
       </c>
       <c r="K25" s="3"/>
@@ -1870,16 +1910,16 @@
         <v>19</v>
       </c>
       <c r="G26">
-        <f>((TIME(D26, E26, 0) + A26) - (TIME(B26, C26, 0) + A26)) * 24</f>
+        <f t="shared" si="0"/>
         <v>0.8333333334303461</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N26" s="2">
-        <v>39.899999999965075</v>
+        <v>4.0500000001047738</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -1902,12 +1942,17 @@
         <v>20</v>
       </c>
       <c r="G27">
-        <f>((TIME(D27, E27, 0) + A27) - (TIME(B27, C27, 0) + A27)) * 24</f>
+        <f t="shared" si="0"/>
         <v>1.1666666666278616</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="M27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.5166666666045785</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
@@ -1929,12 +1974,17 @@
         <v>21</v>
       </c>
       <c r="G28">
-        <f>((TIME(D28, E28, 0) + A28) - (TIME(B28, C28, 0) + A28)) * 24</f>
+        <f t="shared" si="0"/>
         <v>0.96666666667442769</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="M28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" s="2">
+        <v>44.466666666674428</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
@@ -1956,7 +2006,7 @@
         <v>21</v>
       </c>
       <c r="G29">
-        <f>((TIME(D29, E29, 0) + A29) - (TIME(B29, C29, 0) + A29)) * 24</f>
+        <f t="shared" si="0"/>
         <v>0.79999999998835847</v>
       </c>
       <c r="K29" s="3"/>
@@ -1983,7 +2033,7 @@
         <v>22</v>
       </c>
       <c r="G30">
-        <f>((TIME(D30, E30, 0) + A30) - (TIME(B30, C30, 0) + A30)) * 24</f>
+        <f t="shared" si="0"/>
         <v>0.49999999988358468</v>
       </c>
       <c r="K30" s="3"/>
@@ -2010,7 +2060,7 @@
         <v>24</v>
       </c>
       <c r="G31">
-        <f>((TIME(D31, E31, 0) + A31) - (TIME(B31, C31, 0) + A31)) * 24</f>
+        <f t="shared" si="0"/>
         <v>1.3000000000465661</v>
       </c>
       <c r="K31" s="3"/>
@@ -2037,7 +2087,7 @@
         <v>23</v>
       </c>
       <c r="G32">
-        <f>((TIME(D32, E32, 0) + A32) - (TIME(B32, C32, 0) + A32)) * 24</f>
+        <f t="shared" si="0"/>
         <v>1.3833333333022892</v>
       </c>
       <c r="K32" s="3"/>
@@ -2064,7 +2114,7 @@
         <v>26</v>
       </c>
       <c r="G33">
-        <f>((TIME(D33, E33, 0) + A33) - (TIME(B33, C33, 0) + A33)) * 24</f>
+        <f t="shared" si="0"/>
         <v>0.80000000016298145</v>
       </c>
     </row>
@@ -2088,7 +2138,7 @@
         <v>34</v>
       </c>
       <c r="G34">
-        <f>((TIME(D34, E34, 0) + A34) - (TIME(B34, C34, 0) + A34)) * 24</f>
+        <f t="shared" si="0"/>
         <v>2.1666666667442769</v>
       </c>
     </row>
@@ -2112,7 +2162,7 @@
         <v>34</v>
       </c>
       <c r="G35">
-        <f>((TIME(D35, E35, 0) + A35) - (TIME(B35, C35, 0) + A35)) * 24</f>
+        <f t="shared" si="0"/>
         <v>1.8833333333604969</v>
       </c>
     </row>
@@ -2136,8 +2186,26 @@
         <v>35</v>
       </c>
       <c r="G36">
-        <f>((TIME(D36, E36, 0) + A36) - (TIME(B36, C36, 0) + A36)) * 24</f>
+        <f t="shared" si="0"/>
         <v>0.5166666666045785</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>45831</v>
+      </c>
+      <c r="B37">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37">
+        <f>((TIME(D37, E37, 0) + A37) - (TIME(B37, C37, 0) + A37)) * 24</f>
+        <v>-19.049999999930151</v>
       </c>
     </row>
   </sheetData>
